--- a/biology/Médecine/Nicolás_Achúcarro/Nicolás_Achúcarro.xlsx
+++ b/biology/Médecine/Nicolás_Achúcarro/Nicolás_Achúcarro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicol%C3%A1s_Ach%C3%BAcarro</t>
+          <t>Nicolás_Achúcarro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolás Achúcarro y Lund, né le 14 juin 1880 à Bilbao et mort le 23 avril 1918 à Getxo est un médecin, histologiste et neuropathologiste espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicol%C3%A1s_Ach%C3%BAcarro</t>
+          <t>Nicolás_Achúcarro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille aisée, il fréquente durant ses études secondaires l'Institut basque de Bilbao (Instituto Vizcaino), où il a notamment comme professeur Miguel de Unamuno.  
 Après avoir passé une année à Wiesbaden en Allemagne, il commence ses études médicales à Madrid, où il fait la connaissance de celui qui deviendra par la suite son collaborateur et ami, Santiago Ramón y Cajal, qui était à cette époque professeur d'histologie. Ayant complété sa formation à Paris auprès de Pierre Marie, à Florence et à Munich (où il collabore avec Aloïs Alzheimer), il obtient son doctorat en 1906 avec une thèse consacrée à la pathologie de la rage.
